--- a/bots/crawl_ch/output/clothes_2022-08-16.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-16.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-16 07:01:16</t>
+          <t>2022-08-16 20:58:59</t>
         </is>
       </c>
     </row>
